--- a/medicine/Médecine vétérinaire/Syndicat_national_des_industriels_de_la_nutrition_animale/Syndicat_national_des_industriels_de_la_nutrition_animale.xlsx
+++ b/medicine/Médecine vétérinaire/Syndicat_national_des_industriels_de_la_nutrition_animale/Syndicat_national_des_industriels_de_la_nutrition_animale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé en 1971, le Syndicat national des industriels de la nutrition animale (SNIA)[1] est une organisation professionnelle regroupant les industriels de la nutrition animale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 1971, le Syndicat national des industriels de la nutrition animale (SNIA) est une organisation professionnelle regroupant les industriels de la nutrition animale.
 Ce syndicat permet le dialogue entre les entreprises de nutrition animale, les autres filières professionnelles et l'environnement politico-économique. Son champ d'action se situe tant au niveau national qu'européen.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Le rôle du SNIA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le SNIA suit les dossiers d'actualités du secteur de la nutrition animale comme ceux, du soutien à l'élevage[2], des OGM, de l'environnement,de la politique agricole commune (PAC), de l'OMC, de la sécurité sanitaire et des facteurs de croissance. 
-Le syndicat siège également au Conseil Scientifique de la Nutrition Animale, avec d'autres organisations de la nutrition animale[3].
-En 2020, le syndicat lance une démarche sectorielle de RSE[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le SNIA suit les dossiers d'actualités du secteur de la nutrition animale comme ceux, du soutien à l'élevage, des OGM, de l'environnement,de la politique agricole commune (PAC), de l'OMC, de la sécurité sanitaire et des facteurs de croissance. 
+Le syndicat siège également au Conseil Scientifique de la Nutrition Animale, avec d'autres organisations de la nutrition animale.
+En 2020, le syndicat lance une démarche sectorielle de RSE.
 </t>
         </is>
       </c>
